--- a/results/mp/deberta/corona/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
@@ -148,24 +148,24 @@
     <t>wish</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -184,25 +184,25 @@
     <t>super</t>
   </si>
   <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>clean</t>
@@ -1886,13 +1886,13 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6550218340611353</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L27">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>0.9399999999999999</v>
@@ -1904,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1912,25 +1912,25 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0.6521739130434783</v>
+        <v>0.6453900709219859</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1938,25 +1938,25 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.6453900709219859</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L29">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1964,25 +1964,25 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.64</v>
       </c>
       <c r="L30">
+        <v>32</v>
+      </c>
+      <c r="M30">
+        <v>32</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>18</v>
-      </c>
-      <c r="M30">
-        <v>18</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>10</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1993,22 +1993,22 @@
         <v>0.64</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -2016,25 +2016,25 @@
         <v>49</v>
       </c>
       <c r="K32">
-        <v>0.64</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L32">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="M32">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="N32">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2198,25 +2198,25 @@
         <v>56</v>
       </c>
       <c r="K39">
-        <v>0.5396341463414634</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L39">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2224,25 +2224,25 @@
         <v>57</v>
       </c>
       <c r="K40">
-        <v>0.5384615384615384</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="N40">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O40">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2250,25 +2250,25 @@
         <v>58</v>
       </c>
       <c r="K41">
-        <v>0.5365853658536586</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L41">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2276,25 +2276,25 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.5357142857142857</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N42">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2302,25 +2302,25 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>0.5348837209302325</v>
+        <v>0.5287356321839081</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2328,25 +2328,25 @@
         <v>61</v>
       </c>
       <c r="K44">
-        <v>0.5287356321839081</v>
+        <v>0.5235602094240838</v>
       </c>
       <c r="L44">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="M44">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>41</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2354,13 +2354,13 @@
         <v>62</v>
       </c>
       <c r="K45">
-        <v>0.5235602094240838</v>
+        <v>0.5205882352941177</v>
       </c>
       <c r="L45">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="M45">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="10:17">
